--- a/Project 3 Requirements Checklist.xlsx
+++ b/Project 3 Requirements Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Tran\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Tran\project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4D2F9D-F0A1-4723-B5FD-5C9B34FBE69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615B97F7-01B1-4775-8702-06CABAAA9C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5685" yWindow="3675" windowWidth="11550" windowHeight="12060" xr2:uid="{7DAC2924-F08F-4315-8F85-E31847044D06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{7DAC2924-F08F-4315-8F85-E31847044D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Project 3 Requirements Checklist </t>
   </si>
@@ -70,13 +70,28 @@
   </si>
   <si>
     <t>Powerpoint Presentation</t>
+  </si>
+  <si>
+    <t>Dataset on hand and type:</t>
+  </si>
+  <si>
+    <t>https://rawg.io/apidocs</t>
+  </si>
+  <si>
+    <t>Gaming-related API</t>
+  </si>
+  <si>
+    <t>https://developer.imdb.com/documentation</t>
+  </si>
+  <si>
+    <t>Movie-related API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +107,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +147,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,19 +162,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,25 +509,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335EC3F-2ADF-465F-97B2-4207550BCD48}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -484,52 +536,88 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B10" s="5"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{0F300411-C2BA-4BD3-AABA-12E9A8080FE4}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{982DBCF3-A909-483F-9FBC-4F23EB0E99CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project 3 Requirements Checklist.xlsx
+++ b/Project 3 Requirements Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin Tran\project_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615B97F7-01B1-4775-8702-06CABAAA9C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5AE376-E866-4AFD-96AB-4FD4B9A608A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{7DAC2924-F08F-4315-8F85-E31847044D06}"/>
+    <workbookView xWindow="0" yWindow="3675" windowWidth="11550" windowHeight="12060" xr2:uid="{7DAC2924-F08F-4315-8F85-E31847044D06}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Project 3 Requirements Checklist </t>
   </si>
@@ -75,16 +75,22 @@
     <t>Dataset on hand and type:</t>
   </si>
   <si>
-    <t>https://rawg.io/apidocs</t>
-  </si>
-  <si>
-    <t>Gaming-related API</t>
-  </si>
-  <si>
-    <t>https://developer.imdb.com/documentation</t>
-  </si>
-  <si>
-    <t>Movie-related API</t>
+    <t>https://www.chess.com/news/view/published-data-api</t>
+  </si>
+  <si>
+    <t>Chess API</t>
+  </si>
+  <si>
+    <t>https://www.monterail.com/blog/javascript-libraries-data-visualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS libraries </t>
+  </si>
+  <si>
+    <t>https://lichess.org/api</t>
+  </si>
+  <si>
+    <t>Additional Chess API</t>
   </si>
 </sst>
 </file>
@@ -184,16 +190,18 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -509,114 +517,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3335EC3F-2ADF-465F-97B2-4207550BCD48}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="8" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A14:C14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" xr:uid="{0F300411-C2BA-4BD3-AABA-12E9A8080FE4}"/>
-    <hyperlink ref="B16" r:id="rId2" xr:uid="{982DBCF3-A909-483F-9FBC-4F23EB0E99CE}"/>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{1825F81B-6E54-443A-A858-2E5FD7B62779}"/>
+    <hyperlink ref="B16" r:id="rId2" xr:uid="{CB797BAA-8BCC-449F-9ED1-AE836C0F8BA2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
